--- a/medicine/Psychotrope/Second_Cup/Second_Cup.xlsx
+++ b/medicine/Psychotrope/Second_Cup/Second_Cup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Second Cup Limited est une chaîne de cafés canadienne, fondée en 1975.
-Elle représente plus de 295[1] enseignes au Canada et plus de 15 dans le reste du monde[2][source insuffisante]. Les détaillants internationaux se trouvent aux Émirats arabes unis, au Koweït, au Maroc, en Arabie saoudite et en Oman[réf. nécessaire].
+Elle représente plus de 295 enseignes au Canada et plus de 15 dans le reste du monde[source insuffisante]. Les détaillants internationaux se trouvent aux Émirats arabes unis, au Koweït, au Maroc, en Arabie saoudite et en Oman[réf. nécessaire].
 Bien que son nom puisse se traduire d'une façon littérale en français comme « Deuxième tasse », les enseignes québécoises sont intitulées « Café Second Cup », ce qui a provoqué la violence sous la forme de bombes incendiaires contre trois cafés Second Cup à Montréal (affaire Brigade d'autodéfense du français / Rhéal Mathieu)[réf. nécessaire].
-En février 2021, la chaîne de cafés est rachetée, à la compagnie ontarienne Aegis Brands, par le franchiseur québécois Foodtastic[3].
+En février 2021, la chaîne de cafés est rachetée, à la compagnie ontarienne Aegis Brands, par le franchiseur québécois Foodtastic.
 </t>
         </is>
       </c>
